--- a/TestData/LV_TMTT0012115_ValidateLegacyPeriodAccuredFeesFieldOnRevenueAccruals.xlsx
+++ b/TestData/LV_TMTT0012115_ValidateLegacyPeriodAccuredFeesFieldOnRevenueAccruals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10574F3-262F-4D69-A6CD-1F068486A9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE84275-1756-4FB4-AE73-5078D3AE3257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6914B0A7-23C8-4C59-8A71-D12BF5352AB3}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6914B0A7-23C8-4C59-8A71-D12BF5352AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="3" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Gemma Hardy</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
-  </si>
-  <si>
     <t>Derek Janisch</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>FVA</t>
+  </si>
+  <si>
+    <t>Blaise Brunda</t>
   </si>
 </sst>
 </file>
@@ -466,17 +466,17 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,12 +484,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -498,20 +498,20 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -523,20 +523,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA9484C-3321-40A2-8DBC-82467259E8DC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -552,19 +552,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -576,43 +576,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28710558-C34E-4463-B41D-5BFD4F346D1C}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625" customWidth="1"/>
-    <col min="29" max="29" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -645,7 +645,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -656,9 +656,9 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
